--- a/data/equipment.xlsx
+++ b/data/equipment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19600" tabRatio="716" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lanceur" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,6 +446,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -512,7 +520,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="35">
     <cellStyle name="Bon" xfId="8" builtinId="26"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
@@ -538,6 +546,14 @@
     <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Milliers" xfId="7" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -868,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:R37"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -893,9 +909,10 @@
     <col min="15" max="15" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="245.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="80" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1">
+    <row r="1" spans="1:19" ht="15" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -917,7 +934,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -937,7 +954,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -989,7 +1006,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1029,8 +1046,8 @@
         <v>8500</v>
       </c>
       <c r="M4">
-        <f>(G4+I4+F4)*5</f>
-        <v>105</v>
+        <f>(G4*2+F4)*5</f>
+        <v>135</v>
       </c>
       <c r="N4" s="11">
         <f t="shared" ref="N4:N37" si="2">TRUNC(((J4*E4)/(7/E4))*120,0)</f>
@@ -1046,8 +1063,12 @@
         <f t="shared" ref="R4:R37" si="3">"INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'"&amp;A4&amp;"',"&amp;F4&amp;","&amp;G4&amp;","&amp;K4&amp;",0,0,"&amp;L4&amp;","&amp;N4&amp;");"</f>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Vanguard',1,13,8500,0,0,8500,416);</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S37" si="4">"UPDATE equipment_list SET niveau_equipment="&amp;E4&amp;" WHERE name_equipment='"&amp;A4&amp;"';"</f>
+        <v>UPDATE equipment_list SET niveau_equipment=1 WHERE name_equipment='Vanguard';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1087,8 +1108,8 @@
         <v>11900</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M37" si="4">(G5+I5+F5)*5</f>
-        <v>105</v>
+        <f t="shared" ref="M5:M37" si="5">(G5*2+F5)*5</f>
+        <v>135</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" si="2"/>
@@ -1104,8 +1125,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Semiorka',1,13,11900,0,0,11900,586);</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=1 WHERE name_equipment='Semiorka';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1145,8 +1170,8 @@
         <v>13200</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
-        <v>120</v>
+        <f t="shared" si="5"/>
+        <v>155</v>
       </c>
       <c r="N6" s="11">
         <f t="shared" si="2"/>
@@ -1162,8 +1187,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Juno',3,14,6600,0,0,13200,324);</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=1 WHERE name_equipment='Juno';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1203,8 +1232,8 @@
         <v>16000</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
-        <v>125</v>
+        <f t="shared" si="5"/>
+        <v>160</v>
       </c>
       <c r="N7" s="11">
         <f t="shared" si="2"/>
@@ -1220,8 +1249,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Thor',4,14,8000,0,0,16000,393);</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=1 WHERE name_equipment='Thor';</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
@@ -1261,8 +1294,8 @@
         <v>96000</v>
       </c>
       <c r="M8" s="13">
-        <f t="shared" si="4"/>
-        <v>175</v>
+        <f t="shared" si="5"/>
+        <v>215</v>
       </c>
       <c r="N8" s="15">
         <f t="shared" si="2"/>
@@ -1278,8 +1311,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Titan',11,16,16000,0,0,96000,685);</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=1 WHERE name_equipment='Titan';</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1319,8 +1356,8 @@
         <v>60900</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
-        <v>105</v>
+        <f t="shared" si="5"/>
+        <v>130</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" si="2"/>
@@ -1336,8 +1373,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Mercury-Redstone',4,11,30400,0,0,60900,1742);</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Mercury-Redstone';</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1377,8 +1418,8 @@
         <v>222300</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
-        <v>140</v>
+        <f t="shared" si="5"/>
+        <v>175</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="2"/>
@@ -1394,8 +1435,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Tsyklon',7,14,55500,0,0,222300,2722);</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Tsyklon';</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1435,8 +1480,8 @@
         <v>230100</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
-        <v>135</v>
+        <f t="shared" si="5"/>
+        <v>160</v>
       </c>
       <c r="N11" s="11">
         <f t="shared" si="2"/>
@@ -1452,8 +1497,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Vostok',10,11,46000,0,0,230100,2630);</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Vostok';</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1493,8 +1542,8 @@
         <v>25400</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
-        <v>95</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
       <c r="N12" s="11">
         <f t="shared" si="2"/>
@@ -1510,8 +1559,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Diamant',2,11,25400,0,0,25400,1455);</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Diamant';</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1551,8 +1604,8 @@
         <v>30000</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>70</v>
       </c>
       <c r="N13" s="11">
         <f t="shared" si="2"/>
@@ -1568,8 +1621,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Scout',4,5,15000,0,0,30000,1714);</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Scout';</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1609,8 +1666,8 @@
         <v>453600</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
-        <v>205</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="N14" s="11">
         <f t="shared" si="2"/>
@@ -1626,8 +1683,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Atlas',14,18,64800,0,0,453600,2468);</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Atlas';</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1667,8 +1728,8 @@
         <v>56000</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
-        <v>65</v>
+        <f t="shared" si="5"/>
+        <v>75</v>
       </c>
       <c r="N15" s="11">
         <f t="shared" si="2"/>
@@ -1684,8 +1745,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Delta',7,4,14000,0,0,56000,2400);</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Delta';</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1725,8 +1790,8 @@
         <v>186500</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
-        <v>135</v>
+        <f t="shared" si="5"/>
+        <v>170</v>
       </c>
       <c r="N16" s="11">
         <f t="shared" si="2"/>
@@ -1742,8 +1807,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Voskhod',6,14,62100,0,0,186500,3045);</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Voskhod';</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1783,8 +1852,8 @@
         <v>46200</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
-        <v>105</v>
+        <f t="shared" si="5"/>
+        <v>135</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" si="2"/>
@@ -1800,8 +1869,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Europa',1,13,46200,0,0,46200,2262);</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Europa';</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1841,8 +1914,8 @@
         <v>820800</v>
       </c>
       <c r="M18">
-        <f t="shared" si="4"/>
-        <v>210</v>
+        <f t="shared" si="5"/>
+        <v>255</v>
       </c>
       <c r="N18" s="11">
         <f t="shared" si="2"/>
@@ -1858,8 +1931,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Proton',15,18,102600,0,0,820800,3908);</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Proton';</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1899,8 +1976,8 @@
         <v>448900</v>
       </c>
       <c r="M19">
-        <f t="shared" si="4"/>
-        <v>170</v>
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
       <c r="N19" s="11">
         <f t="shared" si="2"/>
@@ -1916,8 +1993,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Saturn',14,13,64100,0,0,448900,3141);</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Saturn';</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1957,8 +2038,8 @@
         <v>331200</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
-        <v>145</v>
+        <f t="shared" si="5"/>
+        <v>175</v>
       </c>
       <c r="N20" s="11">
         <f t="shared" si="2"/>
@@ -1974,8 +2055,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Soyuz',11,12,55200,0,0,331200,3154);</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Soyuz';</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2015,7 +2100,7 @@
         <v>16800</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="N21" s="11">
@@ -2032,8 +2117,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Cosmos',6,1,5600,0,0,16800,1920);</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Cosmos';</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="13" t="s">
         <v>33</v>
       </c>
@@ -2073,8 +2162,8 @@
         <v>1791700</v>
       </c>
       <c r="M22" s="13">
-        <f t="shared" si="4"/>
-        <v>225</v>
+        <f t="shared" si="5"/>
+        <v>270</v>
       </c>
       <c r="N22" s="15">
         <f t="shared" si="2"/>
@@ -2090,8 +2179,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Saturn V',18,18,199000,0,0,1791700,7584);</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Saturn V';</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2131,8 +2224,8 @@
         <v>1188000</v>
       </c>
       <c r="M23">
-        <f t="shared" si="4"/>
-        <v>185</v>
+        <f t="shared" si="5"/>
+        <v>225</v>
       </c>
       <c r="N23" s="11">
         <f t="shared" si="2"/>
@@ -2148,8 +2241,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'N1',11,17,198000,0,0,1188000,7542);</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='N1';</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2189,8 +2286,8 @@
         <v>599400</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
-        <v>145</v>
+        <f t="shared" si="5"/>
+        <v>170</v>
       </c>
       <c r="N24" s="11">
         <f t="shared" si="2"/>
@@ -2206,8 +2303,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Longue-Marche',12,11,99900,0,0,599400,5708);</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=3 WHERE name_equipment='Longue-Marche';</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2247,8 +2348,8 @@
         <v>122400</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>65</v>
       </c>
       <c r="N25" s="11">
         <f t="shared" si="2"/>
@@ -2264,8 +2365,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'N-1&amp;N-2',7,3,30600,0,0,122400,5245);</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=3 WHERE name_equipment='N-1&amp;N-2';</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="13" t="s">
         <v>86</v>
       </c>
@@ -2305,8 +2410,8 @@
         <v>1296000</v>
       </c>
       <c r="M26" s="13">
-        <f t="shared" si="4"/>
-        <v>170</v>
+        <f t="shared" si="5"/>
+        <v>205</v>
       </c>
       <c r="N26" s="15">
         <f t="shared" si="2"/>
@@ -2322,8 +2427,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Bourane*',11,15,216000,0,0,1296000,9257);</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=3 WHERE name_equipment='Bourane*';</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2363,8 +2472,8 @@
         <v>874800</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
-        <v>145</v>
+        <f t="shared" si="5"/>
+        <v>170</v>
       </c>
       <c r="N27" s="11">
         <f t="shared" si="2"/>
@@ -2380,8 +2489,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Ariane',12,11,145800,0,0,874800,8331);</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=3 WHERE name_equipment='Ariane';</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="13" t="s">
         <v>87</v>
       </c>
@@ -2421,8 +2534,8 @@
         <v>1886300</v>
       </c>
       <c r="M28" s="13">
-        <f t="shared" si="4"/>
-        <v>155</v>
+        <f t="shared" si="5"/>
+        <v>185</v>
       </c>
       <c r="N28" s="15">
         <f t="shared" si="2"/>
@@ -2438,8 +2551,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Navette spatial*',11,13,314300,0,0,1886300,15398);</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=4 WHERE name_equipment='Navette spatial*';</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2479,8 +2596,8 @@
         <v>1526400</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
-        <v>145</v>
+        <f t="shared" si="5"/>
+        <v>175</v>
       </c>
       <c r="N29" s="11">
         <f t="shared" si="2"/>
@@ -2496,8 +2613,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'H1&amp;H2',11,12,254400,0,0,1526400,14537);</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=4 WHERE name_equipment='H1&amp;H2';</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="13" t="s">
         <v>13</v>
       </c>
@@ -2537,8 +2658,8 @@
         <v>243700</v>
       </c>
       <c r="M30" s="13">
-        <f t="shared" si="4"/>
-        <v>65</v>
+        <f t="shared" si="5"/>
+        <v>70</v>
       </c>
       <c r="N30" s="15">
         <f t="shared" si="2"/>
@@ -2554,8 +2675,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Delta II',10,2,48700,0,0,243700,16714);</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=5 WHERE name_equipment='Delta II';</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2595,8 +2720,8 @@
         <v>108700</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="N31" s="11">
         <f t="shared" si="2"/>
@@ -2612,8 +2737,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Rockot',5,2,36200,0,0,108700,12428);</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=5 WHERE name_equipment='Rockot';</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2653,8 +2782,8 @@
         <v>857500</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
-        <v>105</v>
+        <f t="shared" si="5"/>
+        <v>125</v>
       </c>
       <c r="N32" s="11">
         <f t="shared" si="2"/>
@@ -2670,8 +2799,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Denpr',7,9,214300,0,0,857500,14700);</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=5 WHERE name_equipment='Denpr';</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2711,8 +2844,8 @@
         <v>86200</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>50</v>
       </c>
       <c r="N33" s="11">
         <f t="shared" si="2"/>
@@ -2728,8 +2861,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Athena',6,2,28700,0,0,86200,9857);</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=5 WHERE name_equipment='Athena';</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="13" t="s">
         <v>7</v>
       </c>
@@ -2769,8 +2906,8 @@
         <v>2187500</v>
       </c>
       <c r="M34" s="13">
-        <f t="shared" si="4"/>
-        <v>140</v>
+        <f t="shared" si="5"/>
+        <v>160</v>
       </c>
       <c r="N34" s="15">
         <f t="shared" si="2"/>
@@ -2786,8 +2923,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Ariane V',14,9,312500,0,0,2187500,21428);</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=5 WHERE name_equipment='Ariane V';</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2827,8 +2968,8 @@
         <v>85900</v>
       </c>
       <c r="M35">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
       <c r="N35" s="11">
         <f t="shared" si="2"/>
@@ -2844,8 +2985,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Minautaur',4,2,42900,0,0,85900,14737);</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=6 WHERE name_equipment='Minautaur';</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="13" t="s">
         <v>11</v>
       </c>
@@ -2885,8 +3030,8 @@
         <v>1888900</v>
       </c>
       <c r="M36" s="13">
-        <f t="shared" si="4"/>
-        <v>95</v>
+        <f t="shared" si="5"/>
+        <v>105</v>
       </c>
       <c r="N36" s="13">
         <f t="shared" si="2"/>
@@ -2902,8 +3047,12 @@
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Atlas V',11,5,314800,0,0,1888900,35979);</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=6 WHERE name_equipment='Atlas V';</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2943,7 +3092,7 @@
         <v>162000</v>
       </c>
       <c r="M37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="N37" s="11">
@@ -2959,6 +3108,10 @@
       <c r="R37" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (1,'Vega',6,1,54000,0,0,162000,18514);</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="4"/>
+        <v>UPDATE equipment_list SET niveau_equipment=6 WHERE name_equipment='Vega';</v>
       </c>
     </row>
   </sheetData>
@@ -3017,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3038,7 +3191,7 @@
     <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1">
+    <row r="1" spans="1:15" ht="15" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>44</v>
       </c>
@@ -3054,7 +3207,7 @@
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1">
+    <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -3068,7 +3221,7 @@
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -3106,7 +3259,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3150,8 +3303,12 @@
         <f t="shared" ref="N4:N17" si="1">"INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'"&amp;A4&amp;"',"&amp;F4&amp;",0,0,"&amp;I4&amp;",0,"&amp;J4&amp;","&amp;K4&amp;");"</f>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'SK1',1,0,0,700,0,7800,400);</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O17" si="2">"UPDATE equipment_list SET niveau_equipment="&amp;E4&amp;" WHERE name_equipment='"&amp;A4&amp;"';"</f>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='SK1';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -3177,11 +3334,11 @@
         <v>6</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I17" si="2">(G5+H5)*100</f>
+        <f t="shared" ref="I5:I17" si="3">(G5+H5)*100</f>
         <v>700</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J17" si="3">(G5+(H5*2))*E5*300</f>
+        <f t="shared" ref="J5:J17" si="4">(G5+(H5*2))*E5*300</f>
         <v>7800</v>
       </c>
       <c r="K5">
@@ -3195,8 +3352,12 @@
         <f t="shared" si="1"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'Navy Mark IV',1,0,0,700,0,7800,400);</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Navy Mark IV';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3222,11 +3383,11 @@
         <v>6</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8400</v>
       </c>
       <c r="K6">
@@ -3240,8 +3401,12 @@
         <f t="shared" si="1"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'Berkut',3,0,0,800,0,8400,800);</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Berkut';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -3267,11 +3432,11 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8400</v>
       </c>
       <c r="K7">
@@ -3285,8 +3450,12 @@
         <f t="shared" si="1"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'G4C',3,0,0,800,0,8400,800);</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='G4C';</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -3312,11 +3481,11 @@
         <v>5</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7200</v>
       </c>
       <c r="K8">
@@ -3330,8 +3499,12 @@
         <f t="shared" si="1"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'Yastreb',4,0,0,700,0,7200,800);</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Yastreb';</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="13" t="s">
         <v>54</v>
       </c>
@@ -3357,11 +3530,11 @@
         <v>6</v>
       </c>
       <c r="I9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
       <c r="J9" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9000</v>
       </c>
       <c r="K9" s="13">
@@ -3375,8 +3548,12 @@
         <f t="shared" si="1"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'A7L',5,0,0,900,0,9000,1200);</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='A7L';</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3402,11 +3579,11 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10800</v>
       </c>
       <c r="K10">
@@ -3420,8 +3597,12 @@
         <f t="shared" si="1"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'Sokol',12,0,0,900,0,10800,3600);</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE equipment_list SET niveau_equipment=3 WHERE name_equipment='Sokol';</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="13" t="s">
         <v>51</v>
       </c>
@@ -3447,11 +3628,11 @@
         <v>6</v>
       </c>
       <c r="I11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
       <c r="J11" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="K11" s="13">
@@ -3465,8 +3646,12 @@
         <f t="shared" si="1"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'Orlan',16,0,0,1400,0,18000,4800);</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE equipment_list SET niveau_equipment=3 WHERE name_equipment='Orlan';</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -3492,11 +3677,11 @@
         <v>6</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19200</v>
       </c>
       <c r="K12">
@@ -3510,8 +3695,12 @@
         <f t="shared" si="1"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'Strizh',7,0,0,1000,0,19200,3200);</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE equipment_list SET niveau_equipment=4 WHERE name_equipment='Strizh';</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="13" t="s">
         <v>55</v>
       </c>
@@ -3537,11 +3726,11 @@
         <v>5</v>
       </c>
       <c r="I13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
       <c r="J13" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16800</v>
       </c>
       <c r="K13" s="13">
@@ -3555,8 +3744,12 @@
         <f t="shared" si="1"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'Shuttle Ejection Escape Suit',8,0,0,900,0,16800,3200);</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE equipment_list SET niveau_equipment=4 WHERE name_equipment='Shuttle Ejection Escape Suit';</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3582,11 +3775,11 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21600</v>
       </c>
       <c r="K14">
@@ -3600,8 +3793,12 @@
         <f t="shared" si="1"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'Launch Entry Suit',12,0,0,1200,0,21600,4800);</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE equipment_list SET niveau_equipment=4 WHERE name_equipment='Launch Entry Suit';</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -3627,11 +3824,11 @@
         <v>6</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
       <c r="K15">
@@ -3645,8 +3842,12 @@
         <f t="shared" si="1"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'Extravehicular Mobility Unit',16,0,0,1400,0,24000,6400);</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE equipment_list SET niveau_equipment=4 WHERE name_equipment='Extravehicular Mobility Unit';</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -3672,11 +3873,11 @@
         <v>5</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25500</v>
       </c>
       <c r="K16">
@@ -3690,8 +3891,12 @@
         <f t="shared" si="1"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'Advanced Crew Escape Suit',13,0,0,1200,0,25500,7000);</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE equipment_list SET niveau_equipment=5 WHERE name_equipment='Advanced Crew Escape Suit';</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -3717,11 +3922,11 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18000</v>
       </c>
       <c r="K17">
@@ -3734,6 +3939,10 @@
       <c r="N17" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (4,'Feitian',11,0,0,800,0,18000,7200);</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE equipment_list SET niveau_equipment=6 WHERE name_equipment='Feitian';</v>
       </c>
     </row>
   </sheetData>
@@ -3755,10 +3964,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3772,7 +3981,7 @@
     <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1">
+    <row r="1" spans="1:15" ht="15" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -3788,7 +3997,7 @@
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1">
+    <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -3802,7 +4011,7 @@
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -3840,7 +4049,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -3883,8 +4092,12 @@
         <f t="shared" ref="N4:N17" si="2">"INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'"&amp;A4&amp;"',"&amp;F4&amp;","&amp;G4&amp;",0,0,0,"&amp;J4&amp;","&amp;K4&amp;");"</f>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'Mercury',3,2,0,0,0,13800,600);</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O17" si="3">"UPDATE equipment_list SET niveau_equipment="&amp;E4&amp;" WHERE name_equipment='"&amp;A4&amp;"';"</f>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Mercury';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3927,8 +4140,12 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'Vostok',4,3,0,0,0,13800,840);</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="str">
+        <f t="shared" si="3"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Vostok';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -3971,8 +4188,12 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'Voskhod',5,1,0,0,0,14400,720);</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="str">
+        <f t="shared" si="3"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Voskhod';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -4015,8 +4236,12 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'Gemini',6,4,0,0,0,12600,1200);</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="str">
+        <f t="shared" si="3"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Gemini';</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="13" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4284,12 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'Skylab',9,5,0,0,0,24300,2520);</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="str">
+        <f t="shared" si="3"/>
+        <v>UPDATE equipment_list SET niveau_equipment=3 WHERE name_equipment='Skylab';</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -4103,8 +4332,12 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'Apollo',8,8,0,0,0,13200,1920);</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="str">
+        <f t="shared" si="3"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Apollo';</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -4147,8 +4380,12 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'Almaz',10,5,0,0,0,27000,2700);</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="str">
+        <f t="shared" si="3"/>
+        <v>UPDATE equipment_list SET niveau_equipment=3 WHERE name_equipment='Almaz';</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -4191,8 +4428,12 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'Saliout',8,16,0,0,0,21600,4320);</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="str">
+        <f t="shared" si="3"/>
+        <v>UPDATE equipment_list SET niveau_equipment=3 WHERE name_equipment='Saliout';</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="13" t="s">
         <v>71</v>
       </c>
@@ -4235,8 +4476,12 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'MIR',11,18,0,0,0,57600,6960);</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="str">
+        <f t="shared" si="3"/>
+        <v>UPDATE equipment_list SET niveau_equipment=4 WHERE name_equipment='MIR';</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -4279,8 +4524,12 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'JEM',12,5,0,0,0,151200,6120);</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" t="str">
+        <f t="shared" si="3"/>
+        <v>UPDATE equipment_list SET niveau_equipment=6 WHERE name_equipment='JEM';</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -4323,8 +4572,12 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'HTV',13,3,0,0,0,135000,5760);</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" t="str">
+        <f t="shared" si="3"/>
+        <v>UPDATE equipment_list SET niveau_equipment=6 WHERE name_equipment='HTV';</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="13" t="s">
         <v>66</v>
       </c>
@@ -4367,8 +4620,12 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'ISS',15,18,0,0,0,108750,9900);</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" t="str">
+        <f t="shared" si="3"/>
+        <v>UPDATE equipment_list SET niveau_equipment=5 WHERE name_equipment='ISS';</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -4411,8 +4668,12 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'Shenzhou',11,14,0,0,0,90000,7500);</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" t="str">
+        <f t="shared" si="3"/>
+        <v>UPDATE equipment_list SET niveau_equipment=5 WHERE name_equipment='Shenzhou';</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4454,6 +4715,10 @@
       <c r="N17" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO equipment_list (`id_type_equipment`,`name_equipment`,`skill1_equipment`,`skill2_equipment`,`metal_equipment`,`oxygene_equipment`,`carburant_equipment`,`argent_equipment`,`time_equipment`) VALUES (3,'Soyouz',7,17,0,0,0,7800,2880);</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="3"/>
+        <v>UPDATE equipment_list SET niveau_equipment=2 WHERE name_equipment='Soyouz';</v>
       </c>
     </row>
   </sheetData>
@@ -4477,8 +4742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
